--- a/StationDetails.xlsx
+++ b/StationDetails.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26105"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,6 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
+    <t>Station 6</t>
+  </si>
+  <si>
+    <t>WL Hobo blue coupler</t>
+  </si>
+  <si>
     <t>Length of WL string</t>
   </si>
   <si>
@@ -48,7 +56,7 @@
     <t>DO about same as WL</t>
   </si>
   <si>
-    <t>Station 6</t>
+    <t>DO cap expires?</t>
   </si>
   <si>
     <t>Station 5</t>
@@ -57,55 +65,49 @@
     <t>Length of DO string</t>
   </si>
   <si>
-    <t>DO cap expires?</t>
-  </si>
-  <si>
     <t>can't stay connected long enough</t>
   </si>
   <si>
+    <t>Station 1</t>
+  </si>
+  <si>
+    <t>WL Solinst</t>
+  </si>
+  <si>
+    <t>Length of WL string + solinst logger</t>
+  </si>
+  <si>
+    <t>Length of DO string + logger</t>
+  </si>
+  <si>
+    <t>DWL (notch to water surface)</t>
+  </si>
+  <si>
+    <t>D Do (notch to water surface)</t>
+  </si>
+  <si>
+    <t>D CO2 (surface of water to sensor)</t>
+  </si>
+  <si>
+    <t>Station 2</t>
+  </si>
+  <si>
+    <t>Length of WL string (no logger)</t>
+  </si>
+  <si>
+    <t>Length of DO string (no logger)</t>
+  </si>
+  <si>
+    <t>Station 3</t>
+  </si>
+  <si>
+    <t>WL Hobo grey coupler</t>
+  </si>
+  <si>
+    <t>Length of WL string + logger</t>
+  </si>
+  <si>
     <t>Station 4</t>
-  </si>
-  <si>
-    <t>Station 1</t>
-  </si>
-  <si>
-    <t>WL Solinst</t>
-  </si>
-  <si>
-    <t>WL Hobo blue coupler</t>
-  </si>
-  <si>
-    <t>Length of WL string + solinst logger</t>
-  </si>
-  <si>
-    <t>Length of DO string (no logger)</t>
-  </si>
-  <si>
-    <t>D CO2 (surface of water to sensor)</t>
-  </si>
-  <si>
-    <t>DWL (notch to water surface)</t>
-  </si>
-  <si>
-    <t>D Do (notch to water surface)</t>
-  </si>
-  <si>
-    <t>Station 2</t>
-  </si>
-  <si>
-    <t>Length of WL string (no logger)</t>
-  </si>
-  <si>
-    <t>Station 3</t>
-  </si>
-  <si>
-    <t>WL Hobo grey coupler</t>
-  </si>
-  <si>
-    <t>Length of WL string + logger</t>
-  </si>
-  <si>
-    <t>Length of DO string + logger</t>
   </si>
   <si>
     <t>&lt;1cm</t>
@@ -127,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,11 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -490,103 +491,103 @@
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>44405.572916666664</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2.5</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>44405.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -594,122 +595,122 @@
         <v>44404.583333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <f>16+24</f>
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
         <v>44205</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
         <v>44404.5625</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3">
         <v>44570</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -717,12 +718,12 @@
         <v>44404.458333333336</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -731,110 +732,110 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <f>9.1+24</f>
         <v>33.1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3">
         <v>44520</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2">
         <v>44404.427083333336</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <f>13.4+24</f>
         <v>37.4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <v>29.8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B47">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="4">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3">
         <v>44520</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -842,7 +843,7 @@
         <v>44404.59375</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -851,7 +852,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -859,7 +860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -867,7 +868,7 @@
         <v>44404.458333333336</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -875,7 +876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
